--- a/data/pca/factorExposure/factorExposure_2010-04-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-16.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01506299859299278</v>
+        <v>-0.01715675678221403</v>
       </c>
       <c r="C2">
-        <v>0.002822138864495602</v>
+        <v>-0.001075350840992396</v>
       </c>
       <c r="D2">
-        <v>0.0109730869425358</v>
+        <v>-0.008085414254233456</v>
       </c>
       <c r="E2">
-        <v>0.01086958329782354</v>
+        <v>0.0003837393195077849</v>
       </c>
       <c r="F2">
-        <v>0.02083790837015147</v>
+        <v>-0.01059310045720925</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1161105460301015</v>
+        <v>-0.09318172498489066</v>
       </c>
       <c r="C4">
-        <v>-0.063196142446585</v>
+        <v>-0.01657357181207657</v>
       </c>
       <c r="D4">
-        <v>0.06264934033339573</v>
+        <v>-0.08388782767743129</v>
       </c>
       <c r="E4">
-        <v>-0.00665630723441794</v>
+        <v>-0.03085874632995583</v>
       </c>
       <c r="F4">
-        <v>0.01984447220304713</v>
+        <v>0.03178021427405144</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1237952466224736</v>
+        <v>-0.1534887952612274</v>
       </c>
       <c r="C6">
-        <v>-0.01633301500502584</v>
+        <v>-0.02477217764836887</v>
       </c>
       <c r="D6">
-        <v>0.03693904155077742</v>
+        <v>0.02133218812695018</v>
       </c>
       <c r="E6">
-        <v>0.0278062777299427</v>
+        <v>-0.01014825202805445</v>
       </c>
       <c r="F6">
-        <v>-0.0577508511920648</v>
+        <v>0.04195093813192298</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0657196002165189</v>
+        <v>-0.05931380752621492</v>
       </c>
       <c r="C7">
-        <v>-0.04049169586546941</v>
+        <v>0.0006867511763104621</v>
       </c>
       <c r="D7">
-        <v>0.07749565781700911</v>
+        <v>-0.05236328661408069</v>
       </c>
       <c r="E7">
-        <v>0.02388495367069876</v>
+        <v>-0.01512032578902989</v>
       </c>
       <c r="F7">
-        <v>0.04996574841554294</v>
+        <v>0.05179789505613569</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05344341906204231</v>
+        <v>-0.05836343571458903</v>
       </c>
       <c r="C8">
-        <v>-0.02895138461583486</v>
+        <v>0.01290752604329437</v>
       </c>
       <c r="D8">
-        <v>0.05250390255884483</v>
+        <v>-0.03105652872207709</v>
       </c>
       <c r="E8">
-        <v>-0.01354085156456069</v>
+        <v>-0.01511731800350528</v>
       </c>
       <c r="F8">
-        <v>-0.008801665286340566</v>
+        <v>-0.02901128011238744</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07898915611574049</v>
+        <v>-0.07110425788920496</v>
       </c>
       <c r="C9">
-        <v>-0.04022780524084948</v>
+        <v>-0.01267507353771399</v>
       </c>
       <c r="D9">
-        <v>0.04880236791904192</v>
+        <v>-0.08329794450136349</v>
       </c>
       <c r="E9">
-        <v>-0.01637981364230712</v>
+        <v>-0.02548483089989846</v>
       </c>
       <c r="F9">
-        <v>0.01757777626205019</v>
+        <v>0.0540359276083505</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1201329339981054</v>
+        <v>-0.09465622742730803</v>
       </c>
       <c r="C10">
-        <v>0.1348130000687992</v>
+        <v>-0.01719387962764467</v>
       </c>
       <c r="D10">
-        <v>-0.08922324462699245</v>
+        <v>0.1710361742600772</v>
       </c>
       <c r="E10">
-        <v>0.02190964777650867</v>
+        <v>0.03971677347184854</v>
       </c>
       <c r="F10">
-        <v>0.02535528712241475</v>
+        <v>-0.052658135660284</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07517893240731589</v>
+        <v>-0.08753120461149379</v>
       </c>
       <c r="C11">
-        <v>-0.03302710542337176</v>
+        <v>-0.01200260012339375</v>
       </c>
       <c r="D11">
-        <v>0.07446823335581006</v>
+        <v>-0.1146119261534684</v>
       </c>
       <c r="E11">
-        <v>-0.02242754539210606</v>
+        <v>-0.04939802009250079</v>
       </c>
       <c r="F11">
-        <v>0.00741067656550445</v>
+        <v>0.01996389182111283</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07178100556531036</v>
+        <v>-0.09222427856178259</v>
       </c>
       <c r="C12">
-        <v>-0.02969793838421037</v>
+        <v>-0.00979381132595738</v>
       </c>
       <c r="D12">
-        <v>0.07807574932555957</v>
+        <v>-0.1224269890196123</v>
       </c>
       <c r="E12">
-        <v>-0.05548796742610362</v>
+        <v>-0.04818987298707882</v>
       </c>
       <c r="F12">
-        <v>0.02957516839420463</v>
+        <v>0.02051855438143417</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.028115011813762</v>
+        <v>-0.04270032672980377</v>
       </c>
       <c r="C13">
-        <v>-0.02086585099615449</v>
+        <v>-0.003844468787664494</v>
       </c>
       <c r="D13">
-        <v>0.02033017093750778</v>
+        <v>-0.04772477117057691</v>
       </c>
       <c r="E13">
-        <v>0.01953686868178439</v>
+        <v>0.01109483398281781</v>
       </c>
       <c r="F13">
-        <v>0.01646849542812615</v>
+        <v>0.01364282842217953</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03858635347355651</v>
+        <v>-0.0221980522105215</v>
       </c>
       <c r="C14">
-        <v>-0.02244626513918342</v>
+        <v>-0.01439645889652499</v>
       </c>
       <c r="D14">
-        <v>0.02252013807109213</v>
+        <v>-0.03265155274160195</v>
       </c>
       <c r="E14">
-        <v>-0.01866452074365063</v>
+        <v>-0.01932484689510632</v>
       </c>
       <c r="F14">
-        <v>0.002609376600779309</v>
+        <v>0.01921155148665139</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01616371571806172</v>
+        <v>-0.0315513024716372</v>
       </c>
       <c r="C15">
-        <v>-0.01040372075273516</v>
+        <v>-0.005541679845476772</v>
       </c>
       <c r="D15">
-        <v>0.00877597671883891</v>
+        <v>-0.04511589995300634</v>
       </c>
       <c r="E15">
-        <v>0.04803746366510437</v>
+        <v>-0.008944506942347918</v>
       </c>
       <c r="F15">
-        <v>0.006141345901458927</v>
+        <v>0.03049419971932623</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0801644727260765</v>
+        <v>-0.07353363986245144</v>
       </c>
       <c r="C16">
-        <v>-0.02437318117638355</v>
+        <v>-0.003536587175446176</v>
       </c>
       <c r="D16">
-        <v>0.07967801096354353</v>
+        <v>-0.1171184419382311</v>
       </c>
       <c r="E16">
-        <v>-0.03639342355940514</v>
+        <v>-0.06359569954330389</v>
       </c>
       <c r="F16">
-        <v>0.0008528364911341021</v>
+        <v>0.02888105316103926</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02307482935547909</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003544304949520601</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01905846392203927</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.008986800393787603</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.01780343469165962</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04804337445174783</v>
+        <v>-0.06106414936474475</v>
       </c>
       <c r="C20">
-        <v>-0.05224514792398627</v>
+        <v>-0.001481315076159314</v>
       </c>
       <c r="D20">
-        <v>0.01163051764532186</v>
+        <v>-0.07459663737354306</v>
       </c>
       <c r="E20">
-        <v>0.0180862954767636</v>
+        <v>-0.05650880452357175</v>
       </c>
       <c r="F20">
-        <v>0.02684306026136084</v>
+        <v>0.02779014002942578</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02841617398721095</v>
+        <v>-0.03881689191961367</v>
       </c>
       <c r="C21">
-        <v>-0.02418931581437297</v>
+        <v>-0.007116826069054487</v>
       </c>
       <c r="D21">
-        <v>-0.008234937564854435</v>
+        <v>-0.03742987833093888</v>
       </c>
       <c r="E21">
-        <v>-0.02125980816411563</v>
+        <v>0.007781219390227161</v>
       </c>
       <c r="F21">
-        <v>-0.003696042842413434</v>
+        <v>-0.01923771788500567</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02903383394836823</v>
+        <v>-0.04218449213584401</v>
       </c>
       <c r="C22">
-        <v>0.003069454109281842</v>
+        <v>-0.0001225981260581884</v>
       </c>
       <c r="D22">
-        <v>0.003114015392572512</v>
+        <v>-0.00211217240478946</v>
       </c>
       <c r="E22">
-        <v>0.6328037793165064</v>
+        <v>-0.02910308775330264</v>
       </c>
       <c r="F22">
-        <v>0.07881798316267412</v>
+        <v>-0.007527823727844022</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.02930380903790318</v>
+        <v>-0.04224437213456196</v>
       </c>
       <c r="C23">
-        <v>0.002976003607923192</v>
+        <v>-0.0001468779896937094</v>
       </c>
       <c r="D23">
-        <v>0.005019101181971249</v>
+        <v>-0.002233849932934456</v>
       </c>
       <c r="E23">
-        <v>0.6358707376232584</v>
+        <v>-0.0294553330811498</v>
       </c>
       <c r="F23">
-        <v>0.07791533020484512</v>
+        <v>-0.007064934947589929</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0807495941447247</v>
+        <v>-0.08003184751972367</v>
       </c>
       <c r="C24">
-        <v>-0.03996950507334832</v>
+        <v>-0.003811945150032758</v>
       </c>
       <c r="D24">
-        <v>0.06237912352919001</v>
+        <v>-0.1181147532151132</v>
       </c>
       <c r="E24">
-        <v>-0.03481958807936091</v>
+        <v>-0.05142532663705445</v>
       </c>
       <c r="F24">
-        <v>0.0113737642302894</v>
+        <v>0.02210015014000372</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08655734064251225</v>
+        <v>-0.08481402683739446</v>
       </c>
       <c r="C25">
-        <v>-0.02977821939682241</v>
+        <v>-0.005851285988284776</v>
       </c>
       <c r="D25">
-        <v>0.07624984842846164</v>
+        <v>-0.1065185405560152</v>
       </c>
       <c r="E25">
-        <v>-0.05973863184699182</v>
+        <v>-0.03475435302073422</v>
       </c>
       <c r="F25">
-        <v>0.02577206413039275</v>
+        <v>0.02955378952190237</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04142041936663363</v>
+        <v>-0.05475037707154994</v>
       </c>
       <c r="C26">
-        <v>-0.003115199526967297</v>
+        <v>-0.01503445220837404</v>
       </c>
       <c r="D26">
-        <v>-0.009730944475069546</v>
+        <v>-0.03709667608836804</v>
       </c>
       <c r="E26">
-        <v>0.01388531420993812</v>
+        <v>-0.02756497542725393</v>
       </c>
       <c r="F26">
-        <v>-0.02386040978084823</v>
+        <v>-0.01218658597603009</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1405276451110899</v>
+        <v>-0.1430418793799866</v>
       </c>
       <c r="C28">
-        <v>0.2640915175609255</v>
+        <v>-0.01543682413624485</v>
       </c>
       <c r="D28">
-        <v>-0.1295278750889112</v>
+        <v>0.2666510621428423</v>
       </c>
       <c r="E28">
-        <v>-0.01293371006488081</v>
+        <v>0.06945935334221964</v>
       </c>
       <c r="F28">
-        <v>-0.03998530195102572</v>
+        <v>0.02944158360411164</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03328370841561719</v>
+        <v>-0.02718803224039654</v>
       </c>
       <c r="C29">
-        <v>-0.00896328965653583</v>
+        <v>-0.00868311853147948</v>
       </c>
       <c r="D29">
-        <v>0.02707786857074825</v>
+        <v>-0.03115275149049712</v>
       </c>
       <c r="E29">
-        <v>-0.02643055837141932</v>
+        <v>-0.01195121890587961</v>
       </c>
       <c r="F29">
-        <v>0.04075157384070786</v>
+        <v>-0.011584755896208</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09789451215763759</v>
+        <v>-0.06311784020093721</v>
       </c>
       <c r="C30">
-        <v>-0.04624338019621201</v>
+        <v>-0.00500178978373911</v>
       </c>
       <c r="D30">
-        <v>0.1045153060453442</v>
+        <v>-0.08500469943209257</v>
       </c>
       <c r="E30">
-        <v>-0.05339790584633981</v>
+        <v>-0.02525231976288102</v>
       </c>
       <c r="F30">
-        <v>-0.03278088793737038</v>
+        <v>0.105278527999283</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02949325961400424</v>
+        <v>-0.04834830032132241</v>
       </c>
       <c r="C31">
-        <v>-0.03485192215675369</v>
+        <v>-0.01498251610136518</v>
       </c>
       <c r="D31">
-        <v>0.02328122978526502</v>
+        <v>-0.02828470501399619</v>
       </c>
       <c r="E31">
-        <v>0.0002747487372623313</v>
+        <v>-0.02712364164060893</v>
       </c>
       <c r="F31">
-        <v>0.01739866671736637</v>
+        <v>-0.004401292855633457</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05779744531031313</v>
+        <v>-0.04793303427754352</v>
       </c>
       <c r="C32">
-        <v>-0.02474027712786013</v>
+        <v>1.763500467888947e-05</v>
       </c>
       <c r="D32">
-        <v>0.003297392499006146</v>
+        <v>-0.03106195095203912</v>
       </c>
       <c r="E32">
-        <v>-0.07622560768841519</v>
+        <v>-0.02983719506159791</v>
       </c>
       <c r="F32">
-        <v>-0.06581139917006988</v>
+        <v>0.001864776370948653</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08591743545571656</v>
+        <v>-0.09029471167196755</v>
       </c>
       <c r="C33">
-        <v>-0.01395225815924837</v>
+        <v>-0.00912534886592097</v>
       </c>
       <c r="D33">
-        <v>0.09647677630672946</v>
+        <v>-0.0937470548056632</v>
       </c>
       <c r="E33">
-        <v>-0.02503435237753091</v>
+        <v>-0.04752286367815368</v>
       </c>
       <c r="F33">
-        <v>0.02087379619705655</v>
+        <v>0.04184693671588526</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06780152140088032</v>
+        <v>-0.06757989603030823</v>
       </c>
       <c r="C34">
-        <v>-0.02113284716937504</v>
+        <v>-0.01211928979227406</v>
       </c>
       <c r="D34">
-        <v>0.05721896635897456</v>
+        <v>-0.09877355718676781</v>
       </c>
       <c r="E34">
-        <v>-0.03104733247290701</v>
+        <v>-0.03571845605329316</v>
       </c>
       <c r="F34">
-        <v>0.01338131632384363</v>
+        <v>0.0404102306716138</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.009940331387930665</v>
+        <v>-0.02437014129731692</v>
       </c>
       <c r="C35">
-        <v>-0.006930854180231126</v>
+        <v>-0.002411406372233166</v>
       </c>
       <c r="D35">
-        <v>0.01838514377099753</v>
+        <v>-0.01196471603476032</v>
       </c>
       <c r="E35">
-        <v>0.001181246246493058</v>
+        <v>-0.01125812888455445</v>
       </c>
       <c r="F35">
-        <v>0.02267597814664733</v>
+        <v>0.009057695413391097</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02477155942297136</v>
+        <v>-0.02432910978818631</v>
       </c>
       <c r="C36">
-        <v>-0.01053337408572623</v>
+        <v>-0.007318329914304571</v>
       </c>
       <c r="D36">
-        <v>0.01514669217238127</v>
+        <v>-0.03786254999954504</v>
       </c>
       <c r="E36">
-        <v>0.003318616942969148</v>
+        <v>-0.0181486452781084</v>
       </c>
       <c r="F36">
-        <v>-6.481537205937857e-05</v>
+        <v>0.01213242589449151</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.008716483565334505</v>
+        <v>-0.001654281432835433</v>
       </c>
       <c r="C38">
-        <v>-0.008179826331069633</v>
+        <v>-0.0002696708258213579</v>
       </c>
       <c r="D38">
-        <v>0.01270537013326038</v>
+        <v>-0.001199578802969549</v>
       </c>
       <c r="E38">
-        <v>0.02300984564245374</v>
+        <v>-0.001511285716135098</v>
       </c>
       <c r="F38">
-        <v>0.03045062949123512</v>
+        <v>-0.0007968180372276601</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.114494920768725</v>
+        <v>-0.1084489405164725</v>
       </c>
       <c r="C39">
-        <v>-0.04468361480195648</v>
+        <v>-0.01730306360308465</v>
       </c>
       <c r="D39">
-        <v>0.1315999496066539</v>
+        <v>-0.1535601613061796</v>
       </c>
       <c r="E39">
-        <v>-0.1371379796116247</v>
+        <v>-0.06135562978043584</v>
       </c>
       <c r="F39">
-        <v>0.03442173885662296</v>
+        <v>0.02714195781233224</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.007901291587523701</v>
+        <v>-0.0370908094194505</v>
       </c>
       <c r="C40">
-        <v>-0.05022485484251821</v>
+        <v>-0.007279507619145894</v>
       </c>
       <c r="D40">
-        <v>0.01883417696008101</v>
+        <v>-0.03164121079011977</v>
       </c>
       <c r="E40">
-        <v>0.06586217818619093</v>
+        <v>-0.003172869950776753</v>
       </c>
       <c r="F40">
-        <v>0.04887657950652936</v>
+        <v>-0.01279775361009303</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0276372990382393</v>
+        <v>-0.02636709244003351</v>
       </c>
       <c r="C41">
-        <v>-0.01197246531734644</v>
+        <v>-0.006647124232493638</v>
       </c>
       <c r="D41">
-        <v>0.009894012763585017</v>
+        <v>-0.01106503966635959</v>
       </c>
       <c r="E41">
-        <v>-0.006453793611917288</v>
+        <v>-0.01267496730879327</v>
       </c>
       <c r="F41">
-        <v>0.01626997741799475</v>
+        <v>-0.008716984753457084</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03762320368169855</v>
+        <v>-0.0407561498864298</v>
       </c>
       <c r="C43">
-        <v>0.0009679933128124802</v>
+        <v>-0.006735421019393614</v>
       </c>
       <c r="D43">
-        <v>0.0293759506683774</v>
+        <v>-0.02079721329029384</v>
       </c>
       <c r="E43">
-        <v>-0.0005530826756390232</v>
+        <v>-0.02455122595763442</v>
       </c>
       <c r="F43">
-        <v>0.005918196004362894</v>
+        <v>-0.01216416552479681</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.113281864408568</v>
+        <v>-0.07565288779760199</v>
       </c>
       <c r="C44">
-        <v>-0.07774285085149653</v>
+        <v>-0.02206554973743339</v>
       </c>
       <c r="D44">
-        <v>0.1590586598524493</v>
+        <v>-0.09577595496357985</v>
       </c>
       <c r="E44">
-        <v>0.1128318601517739</v>
+        <v>-0.07694768364861536</v>
       </c>
       <c r="F44">
-        <v>0.1196065776174088</v>
+        <v>0.1876445781216232</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02196620747559362</v>
+        <v>-0.02213641693518027</v>
       </c>
       <c r="C46">
-        <v>0.01670269703700139</v>
+        <v>-0.003648654228493412</v>
       </c>
       <c r="D46">
-        <v>0.0223357691853064</v>
+        <v>-0.01246440307529475</v>
       </c>
       <c r="E46">
-        <v>0.02972739703398767</v>
+        <v>-0.02359969764023304</v>
       </c>
       <c r="F46">
-        <v>0.02884708568219038</v>
+        <v>0.001647564762974592</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03732353293416941</v>
+        <v>-0.05189342263669872</v>
       </c>
       <c r="C47">
-        <v>-0.02097025224688181</v>
+        <v>-0.003240954748281579</v>
       </c>
       <c r="D47">
-        <v>0.01884191716446759</v>
+        <v>-0.01280970763481233</v>
       </c>
       <c r="E47">
-        <v>-0.008269039598942709</v>
+        <v>-0.02210494775601715</v>
       </c>
       <c r="F47">
-        <v>0.007540725417821226</v>
+        <v>-0.04484528031864186</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04205818663951644</v>
+        <v>-0.04773736795256629</v>
       </c>
       <c r="C48">
-        <v>-0.009975280529212512</v>
+        <v>-0.002964090647475858</v>
       </c>
       <c r="D48">
-        <v>0.01323293948322056</v>
+        <v>-0.04821481268184197</v>
       </c>
       <c r="E48">
-        <v>-0.006597446378441859</v>
+        <v>0.004404604651763283</v>
       </c>
       <c r="F48">
-        <v>0.01986199725410389</v>
+        <v>0.01059875014020129</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2220437999500745</v>
+        <v>-0.2028224477292427</v>
       </c>
       <c r="C49">
-        <v>-0.01416566551106957</v>
+        <v>-0.01769107064678969</v>
       </c>
       <c r="D49">
-        <v>-0.06473237886318045</v>
+        <v>0.01112074960023701</v>
       </c>
       <c r="E49">
-        <v>-0.01873362428470334</v>
+        <v>-0.03279568608462822</v>
       </c>
       <c r="F49">
-        <v>0.03098772789021591</v>
+        <v>0.03206598993300579</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03751907173157952</v>
+        <v>-0.04830714737452369</v>
       </c>
       <c r="C50">
-        <v>-0.02713232879124405</v>
+        <v>-0.01105290316512352</v>
       </c>
       <c r="D50">
-        <v>0.01205439276817962</v>
+        <v>-0.02671012605603681</v>
       </c>
       <c r="E50">
-        <v>-0.01076097550147822</v>
+        <v>-0.02961671887402912</v>
       </c>
       <c r="F50">
-        <v>0.009906126562122504</v>
+        <v>0.009157885663065551</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01400356610034617</v>
+        <v>-0.002455053430142219</v>
       </c>
       <c r="C51">
-        <v>0.0276739876281015</v>
+        <v>-0.0006412608202126727</v>
       </c>
       <c r="D51">
-        <v>0.001770466599536534</v>
+        <v>0.002919957100460927</v>
       </c>
       <c r="E51">
-        <v>0.009498154163925515</v>
+        <v>0.0004377965980097745</v>
       </c>
       <c r="F51">
-        <v>0.009956819463294938</v>
+        <v>0.005553983178222888</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.0990833961622223</v>
+        <v>-0.1446819327416586</v>
       </c>
       <c r="C52">
-        <v>-0.07743332759325987</v>
+        <v>-0.0135106578143287</v>
       </c>
       <c r="D52">
-        <v>0.05376687943591352</v>
+        <v>-0.05228051900647242</v>
       </c>
       <c r="E52">
-        <v>-0.02245224007260277</v>
+        <v>-0.02353416067102875</v>
       </c>
       <c r="F52">
-        <v>0.0346916118593333</v>
+        <v>0.03332587693611729</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1596348546828791</v>
+        <v>-0.1741052185023054</v>
       </c>
       <c r="C53">
-        <v>-0.0443927746780103</v>
+        <v>-0.01659311054290375</v>
       </c>
       <c r="D53">
-        <v>0.0239755033484498</v>
+        <v>-0.01191459269763823</v>
       </c>
       <c r="E53">
-        <v>0.01459057210981697</v>
+        <v>-0.03595722444623236</v>
       </c>
       <c r="F53">
-        <v>0.04624300635364675</v>
+        <v>0.06379963216263036</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.04961602321605126</v>
+        <v>-0.02139518452927589</v>
       </c>
       <c r="C54">
-        <v>-0.0493841861486035</v>
+        <v>-0.01250707730793841</v>
       </c>
       <c r="D54">
-        <v>0.0374665332902526</v>
+        <v>-0.03340836413557127</v>
       </c>
       <c r="E54">
-        <v>0.02253256370128509</v>
+        <v>-0.01559842162092274</v>
       </c>
       <c r="F54">
-        <v>0.01159649188718044</v>
+        <v>-0.00553146846753644</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08374798522429451</v>
+        <v>-0.1139973076869279</v>
       </c>
       <c r="C55">
-        <v>3.481859262150205e-05</v>
+        <v>-0.01513989840405294</v>
       </c>
       <c r="D55">
-        <v>0.07150753911677926</v>
+        <v>-0.01181542250338565</v>
       </c>
       <c r="E55">
-        <v>-0.02385362094852999</v>
+        <v>-0.03009999272956877</v>
       </c>
       <c r="F55">
-        <v>0.02981368855871697</v>
+        <v>0.04432897515042539</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1537286347509561</v>
+        <v>-0.1778398552291911</v>
       </c>
       <c r="C56">
-        <v>-0.04426999099393859</v>
+        <v>-0.01387592226764747</v>
       </c>
       <c r="D56">
-        <v>0.05602402615023047</v>
+        <v>-0.007518582909853882</v>
       </c>
       <c r="E56">
-        <v>-0.01376131304074678</v>
+        <v>-0.03999207898592928</v>
       </c>
       <c r="F56">
-        <v>0.0874877985626222</v>
+        <v>0.03993655000452589</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.05047192363571362</v>
+        <v>-0.0468310575259651</v>
       </c>
       <c r="C58">
-        <v>-0.03721603062081347</v>
+        <v>-0.001989504491831076</v>
       </c>
       <c r="D58">
-        <v>0.01791784960840808</v>
+        <v>-0.06513439599997919</v>
       </c>
       <c r="E58">
-        <v>0.05458669533064433</v>
+        <v>-0.02326699207614631</v>
       </c>
       <c r="F58">
-        <v>0.01979277759414008</v>
+        <v>-0.04350306075346697</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1931274000874673</v>
+        <v>-0.1724852449684947</v>
       </c>
       <c r="C59">
-        <v>0.2270026145196189</v>
+        <v>-0.01660509610984527</v>
       </c>
       <c r="D59">
-        <v>-0.09589349803946789</v>
+        <v>0.2246668084207801</v>
       </c>
       <c r="E59">
-        <v>-0.02659198978167704</v>
+        <v>0.0492053023507066</v>
       </c>
       <c r="F59">
-        <v>-0.0127665672223791</v>
+        <v>-0.03178324371124539</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2409114551784228</v>
+        <v>-0.2368234426320956</v>
       </c>
       <c r="C60">
-        <v>-0.1179962743350789</v>
+        <v>0.003877531968009663</v>
       </c>
       <c r="D60">
-        <v>0.002601479103573996</v>
+        <v>-0.04698613815884429</v>
       </c>
       <c r="E60">
-        <v>-0.03162836368224824</v>
+        <v>-0.007271270073987094</v>
       </c>
       <c r="F60">
-        <v>0.1050299598778618</v>
+        <v>-0.03017898935764247</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1072185858119717</v>
+        <v>-0.08326624057891659</v>
       </c>
       <c r="C61">
-        <v>-0.02515210453615424</v>
+        <v>-0.01364327598460072</v>
       </c>
       <c r="D61">
-        <v>0.09321409057839213</v>
+        <v>-0.1130245091540474</v>
       </c>
       <c r="E61">
-        <v>-0.08422998072350449</v>
+        <v>-0.04246897135606843</v>
       </c>
       <c r="F61">
-        <v>0.05955858418968198</v>
+        <v>0.0141496774294945</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1523284988312501</v>
+        <v>-0.1702742269020209</v>
       </c>
       <c r="C62">
-        <v>-0.03058235854425252</v>
+        <v>-0.01775999011438997</v>
       </c>
       <c r="D62">
-        <v>0.04089957904758652</v>
+        <v>-0.0113542810014655</v>
       </c>
       <c r="E62">
-        <v>0.004726210612845437</v>
+        <v>-0.03748278565138318</v>
       </c>
       <c r="F62">
-        <v>0.05430234933179247</v>
+        <v>0.02110679009463876</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04063732687471313</v>
+        <v>-0.04270533484705237</v>
       </c>
       <c r="C63">
-        <v>-0.006293656683695755</v>
+        <v>-0.003085856201322075</v>
       </c>
       <c r="D63">
-        <v>0.01764209310067846</v>
+        <v>-0.05164402857422454</v>
       </c>
       <c r="E63">
-        <v>-0.008173827300751002</v>
+        <v>-0.02297370294350257</v>
       </c>
       <c r="F63">
-        <v>-0.03511733209964869</v>
+        <v>0.006774440250493928</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09578743376915597</v>
+        <v>-0.1120111133181545</v>
       </c>
       <c r="C64">
-        <v>-0.0337656159267552</v>
+        <v>-0.01168164471453169</v>
       </c>
       <c r="D64">
-        <v>0.02699317455191391</v>
+        <v>-0.04310179726731686</v>
       </c>
       <c r="E64">
-        <v>-0.001284701531475663</v>
+        <v>-0.02208991602113902</v>
       </c>
       <c r="F64">
-        <v>0.07366404690963871</v>
+        <v>0.02329723315395808</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1143715786618551</v>
+        <v>-0.1448140001949275</v>
       </c>
       <c r="C65">
-        <v>-0.01314206234561129</v>
+        <v>-0.03131857943524982</v>
       </c>
       <c r="D65">
-        <v>0.02295854728310129</v>
+        <v>0.04255274794858079</v>
       </c>
       <c r="E65">
-        <v>-0.008588361390322969</v>
+        <v>-0.001061897428577548</v>
       </c>
       <c r="F65">
-        <v>-0.06260850732819408</v>
+        <v>0.04381276437118922</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1318540444596255</v>
+        <v>-0.1296305865087358</v>
       </c>
       <c r="C66">
-        <v>-0.06073074707383356</v>
+        <v>-0.01511715287585858</v>
       </c>
       <c r="D66">
-        <v>0.1404141106436134</v>
+        <v>-0.1413453944551796</v>
       </c>
       <c r="E66">
-        <v>-0.1153758863524829</v>
+        <v>-0.06831560248560996</v>
       </c>
       <c r="F66">
-        <v>0.0539732020748996</v>
+        <v>0.03186155422320514</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05721227916566438</v>
+        <v>-0.06201676955941787</v>
       </c>
       <c r="C67">
-        <v>0.0317934126413491</v>
+        <v>-0.003259891037836477</v>
       </c>
       <c r="D67">
-        <v>0.062434427697149</v>
+        <v>-0.05339272536310735</v>
       </c>
       <c r="E67">
-        <v>0.02888700499917063</v>
+        <v>-0.0178688810077469</v>
       </c>
       <c r="F67">
-        <v>-0.005536908916992844</v>
+        <v>-0.04028391565166279</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1213539566056319</v>
+        <v>-0.1164344155976797</v>
       </c>
       <c r="C68">
-        <v>0.2209494290031944</v>
+        <v>-0.02628348678641142</v>
       </c>
       <c r="D68">
-        <v>-0.1166486721311707</v>
+        <v>0.2632605191776961</v>
       </c>
       <c r="E68">
-        <v>-0.0251303127857408</v>
+        <v>0.08760099349686215</v>
       </c>
       <c r="F68">
-        <v>-0.0536327266710313</v>
+        <v>0.03287632779826804</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03122167279221985</v>
+        <v>-0.03939577895179679</v>
       </c>
       <c r="C69">
-        <v>0.03189741533497539</v>
+        <v>-0.001015706891612365</v>
       </c>
       <c r="D69">
-        <v>0.01951254299458354</v>
+        <v>-0.009342717589256529</v>
       </c>
       <c r="E69">
-        <v>0.007228801380672448</v>
+        <v>-0.02430691522524838</v>
       </c>
       <c r="F69">
-        <v>0.01230127450425495</v>
+        <v>-0.01232812654596166</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03171955461283065</v>
+        <v>-0.06257029839329435</v>
       </c>
       <c r="C70">
-        <v>0.01874546050281051</v>
+        <v>0.02796552067746209</v>
       </c>
       <c r="D70">
-        <v>0.03477447990945537</v>
+        <v>-0.02861473148244148</v>
       </c>
       <c r="E70">
-        <v>-0.03701443201974557</v>
+        <v>0.05072320949375984</v>
       </c>
       <c r="F70">
-        <v>0.04441217272383064</v>
+        <v>-0.2809113574418757</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1388677197085072</v>
+        <v>-0.1356462187118675</v>
       </c>
       <c r="C71">
-        <v>0.2428794904147022</v>
+        <v>-0.03037699906932684</v>
       </c>
       <c r="D71">
-        <v>-0.123033079872173</v>
+        <v>0.2783370162420837</v>
       </c>
       <c r="E71">
-        <v>-0.01283903781062513</v>
+        <v>0.09601921033730496</v>
       </c>
       <c r="F71">
-        <v>-0.01245061501448975</v>
+        <v>0.03924800494763025</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.144493574908676</v>
+        <v>-0.1407149578206436</v>
       </c>
       <c r="C72">
-        <v>-0.02262700457321588</v>
+        <v>-0.02459720190581166</v>
       </c>
       <c r="D72">
-        <v>0.01521073810451937</v>
+        <v>-0.005138859562763051</v>
       </c>
       <c r="E72">
-        <v>0.007045356874963772</v>
+        <v>-0.04547357684983475</v>
       </c>
       <c r="F72">
-        <v>-0.003418835957638692</v>
+        <v>0.02300574066560704</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2191667604905758</v>
+        <v>-0.2036714998524919</v>
       </c>
       <c r="C73">
-        <v>0.001581537310360801</v>
+        <v>-0.01165033665365166</v>
       </c>
       <c r="D73">
-        <v>0.04692170560972939</v>
+        <v>-0.01577020972526231</v>
       </c>
       <c r="E73">
-        <v>-0.05966611324824669</v>
+        <v>-0.06162111777111552</v>
       </c>
       <c r="F73">
-        <v>0.150133160646004</v>
+        <v>0.03410502237390005</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1169105513881619</v>
+        <v>-0.0947244043531798</v>
       </c>
       <c r="C74">
-        <v>-0.04597708802000105</v>
+        <v>-0.01227000287951121</v>
       </c>
       <c r="D74">
-        <v>0.0767659241242846</v>
+        <v>-0.02052216142792882</v>
       </c>
       <c r="E74">
-        <v>0.003999381683650478</v>
+        <v>-0.04863314848985863</v>
       </c>
       <c r="F74">
-        <v>0.04566705080408853</v>
+        <v>0.04630563359377771</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1131541184039752</v>
+        <v>-0.1296979624870241</v>
       </c>
       <c r="C75">
-        <v>-0.05209337185771712</v>
+        <v>-0.02623374193738237</v>
       </c>
       <c r="D75">
-        <v>0.03686555120537238</v>
+        <v>-0.03459693717797323</v>
       </c>
       <c r="E75">
-        <v>-0.00227592688029149</v>
+        <v>-0.06068228737992123</v>
       </c>
       <c r="F75">
-        <v>0.0209765125017395</v>
+        <v>0.01317333216611675</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02341487220311415</v>
+        <v>-0.003955096193209003</v>
       </c>
       <c r="C76">
-        <v>0.01970392018497536</v>
+        <v>-0.000935353532815085</v>
       </c>
       <c r="D76">
-        <v>0.005069070540026107</v>
+        <v>0.0025434601247283</v>
       </c>
       <c r="E76">
-        <v>-0.00894353361586198</v>
+        <v>-0.0008035894108541463</v>
       </c>
       <c r="F76">
-        <v>0.0230770769303391</v>
+        <v>0.004420500037146841</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06282001365473408</v>
+        <v>-0.07826393788106757</v>
       </c>
       <c r="C77">
-        <v>-0.04998516585072654</v>
+        <v>-0.009552429733506895</v>
       </c>
       <c r="D77">
-        <v>0.01267300916822458</v>
+        <v>-0.1149425260591321</v>
       </c>
       <c r="E77">
-        <v>0.004810074847230773</v>
+        <v>-0.03743460511181904</v>
       </c>
       <c r="F77">
-        <v>0.06311307217912007</v>
+        <v>0.03274559346489223</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1145074592633861</v>
+        <v>-0.104789468214079</v>
       </c>
       <c r="C78">
-        <v>-0.04466844922604252</v>
+        <v>-0.04135850120370416</v>
       </c>
       <c r="D78">
-        <v>0.1053055873717963</v>
+        <v>-0.1149199796443145</v>
       </c>
       <c r="E78">
-        <v>0.2553374533685843</v>
+        <v>-0.08106384778439335</v>
       </c>
       <c r="F78">
-        <v>-0.2324133162250911</v>
+        <v>0.07635810623554767</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1330002296061124</v>
+        <v>-0.1643579492546757</v>
       </c>
       <c r="C79">
-        <v>-0.05693323150466931</v>
+        <v>-0.02026189202803829</v>
       </c>
       <c r="D79">
-        <v>0.01489917327847608</v>
+        <v>-0.01965207804582666</v>
       </c>
       <c r="E79">
-        <v>-0.006634387497760705</v>
+        <v>-0.0489828311868961</v>
       </c>
       <c r="F79">
-        <v>0.03662967594121801</v>
+        <v>0.005042634420667031</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07114639784852778</v>
+        <v>-0.08056464986044164</v>
       </c>
       <c r="C80">
-        <v>-0.02732028381991666</v>
+        <v>0.0006683711946515829</v>
       </c>
       <c r="D80">
-        <v>0.119127567483925</v>
+        <v>-0.05855485470864118</v>
       </c>
       <c r="E80">
-        <v>-0.03269074200426395</v>
+        <v>-0.03654277561115404</v>
       </c>
       <c r="F80">
-        <v>0.06848889045659182</v>
+        <v>-0.01466731836629013</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1356478959763924</v>
+        <v>-0.1232537795277506</v>
       </c>
       <c r="C81">
-        <v>-0.0642137838895822</v>
+        <v>-0.0302031493881615</v>
       </c>
       <c r="D81">
-        <v>0.05951969236963792</v>
+        <v>-0.01917363466923065</v>
       </c>
       <c r="E81">
-        <v>-0.002393307791115561</v>
+        <v>-0.05997692765085523</v>
       </c>
       <c r="F81">
-        <v>0.04370751248121457</v>
+        <v>0.005244248339494394</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1561821601735798</v>
+        <v>-0.1643451563791921</v>
       </c>
       <c r="C82">
-        <v>-0.04161540397750098</v>
+        <v>-0.02161143517069712</v>
       </c>
       <c r="D82">
-        <v>0.05456212508747044</v>
+        <v>-0.01547478388045954</v>
       </c>
       <c r="E82">
-        <v>-0.02932522563421943</v>
+        <v>-0.03578161767585791</v>
       </c>
       <c r="F82">
-        <v>0.05672813620473581</v>
+        <v>0.06591195970099474</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08426739354157407</v>
+        <v>-0.06282169335727265</v>
       </c>
       <c r="C83">
-        <v>-0.1088187652165728</v>
+        <v>-0.0033775602359634</v>
       </c>
       <c r="D83">
-        <v>0.09664392056446651</v>
+        <v>-0.05000571407264749</v>
       </c>
       <c r="E83">
-        <v>0.02505372749353819</v>
+        <v>-0.004735354973022575</v>
       </c>
       <c r="F83">
-        <v>0.02606142960104295</v>
+        <v>-0.04198968149288187</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05492604463982589</v>
+        <v>-0.0591534113821925</v>
       </c>
       <c r="C84">
-        <v>0.05941926798456836</v>
+        <v>-0.01103852067729403</v>
       </c>
       <c r="D84">
-        <v>-0.06406031325561549</v>
+        <v>-0.06407411618349942</v>
       </c>
       <c r="E84">
-        <v>-0.04635009896067885</v>
+        <v>-0.00247631994654278</v>
       </c>
       <c r="F84">
-        <v>-0.003539520443401091</v>
+        <v>0.01031321703420512</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1229497308631122</v>
+        <v>-0.1389211530862722</v>
       </c>
       <c r="C85">
-        <v>-0.04233556970113699</v>
+        <v>-0.02598688491918596</v>
       </c>
       <c r="D85">
-        <v>0.03379311393185058</v>
+        <v>-0.01554083740981272</v>
       </c>
       <c r="E85">
-        <v>-0.008228757192465797</v>
+        <v>-0.04183737236101964</v>
       </c>
       <c r="F85">
-        <v>0.06736673982020576</v>
+        <v>0.04549226904578996</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1730322530995826</v>
+        <v>-0.09530976165600742</v>
       </c>
       <c r="C86">
-        <v>-0.5694416925170185</v>
+        <v>0.007218247872889692</v>
       </c>
       <c r="D86">
-        <v>-0.7417933279103859</v>
+        <v>-0.0237282908475877</v>
       </c>
       <c r="E86">
-        <v>-0.01651451348901249</v>
+        <v>-0.1469066947073044</v>
       </c>
       <c r="F86">
-        <v>-0.06794968867434681</v>
+        <v>-0.8654639548139414</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.116428743523464</v>
+        <v>-0.09824106425168146</v>
       </c>
       <c r="C87">
-        <v>-0.08240071631590028</v>
+        <v>-0.02511879695487741</v>
       </c>
       <c r="D87">
-        <v>0.06014543952672436</v>
+        <v>-0.076815782623696</v>
       </c>
       <c r="E87">
-        <v>0.0106896854523544</v>
+        <v>0.0537721016919308</v>
       </c>
       <c r="F87">
-        <v>0.03015402368019547</v>
+        <v>0.07790021930188951</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05185132768673249</v>
+        <v>-0.06104890212852942</v>
       </c>
       <c r="C88">
-        <v>-0.02183602716954428</v>
+        <v>-0.002815539569938286</v>
       </c>
       <c r="D88">
-        <v>0.05456435806482583</v>
+        <v>-0.05361142346586372</v>
       </c>
       <c r="E88">
-        <v>-0.06004265315135063</v>
+        <v>-0.02769747300234906</v>
       </c>
       <c r="F88">
-        <v>0.02938470713531061</v>
+        <v>0.008143903120562972</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1910872484350095</v>
+        <v>-0.1358890590763348</v>
       </c>
       <c r="C89">
-        <v>0.3182729521304531</v>
+        <v>-0.008501981309345364</v>
       </c>
       <c r="D89">
-        <v>-0.1783124439537427</v>
+        <v>0.2560981443520435</v>
       </c>
       <c r="E89">
-        <v>0.06083588054799977</v>
+        <v>0.09266852375609015</v>
       </c>
       <c r="F89">
-        <v>-0.02202807818474546</v>
+        <v>0.02095643111979153</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1509041222292465</v>
+        <v>-0.1466714275285243</v>
       </c>
       <c r="C90">
-        <v>0.2276825692045295</v>
+        <v>-0.02595670579690697</v>
       </c>
       <c r="D90">
-        <v>-0.1188963939154687</v>
+        <v>0.2662404530525387</v>
       </c>
       <c r="E90">
-        <v>-0.03021903755118386</v>
+        <v>0.1090394336152644</v>
       </c>
       <c r="F90">
-        <v>-0.004407447272374639</v>
+        <v>0.02347091556384733</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07959368339753846</v>
+        <v>-0.1188834101859677</v>
       </c>
       <c r="C91">
-        <v>-0.04288648557278601</v>
+        <v>-0.01678638567412681</v>
       </c>
       <c r="D91">
-        <v>0.009888029246929697</v>
+        <v>0.007646860292610471</v>
       </c>
       <c r="E91">
-        <v>-0.005166934611573739</v>
+        <v>-0.05773101217071978</v>
       </c>
       <c r="F91">
-        <v>0.04019709904569624</v>
+        <v>-0.01962855974273081</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1662242548477657</v>
+        <v>-0.1497740400580981</v>
       </c>
       <c r="C92">
-        <v>0.2716601425724045</v>
+        <v>-0.01786523965949717</v>
       </c>
       <c r="D92">
-        <v>-0.1432882984874614</v>
+        <v>0.2966128663772261</v>
       </c>
       <c r="E92">
-        <v>0.03203301244058039</v>
+        <v>0.1046927646035238</v>
       </c>
       <c r="F92">
-        <v>-0.02916430949317884</v>
+        <v>0.01807226832657374</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1533275460735475</v>
+        <v>-0.1513387788332762</v>
       </c>
       <c r="C93">
-        <v>0.2651539453773505</v>
+        <v>-0.02251495908205491</v>
       </c>
       <c r="D93">
-        <v>-0.1744490286525081</v>
+        <v>0.2690286360237844</v>
       </c>
       <c r="E93">
-        <v>-0.05645875461390406</v>
+        <v>0.07534870317916247</v>
       </c>
       <c r="F93">
-        <v>-0.01051495693544755</v>
+        <v>0.01673167683555413</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1331241063532718</v>
+        <v>-0.1330361124428617</v>
       </c>
       <c r="C94">
-        <v>-0.02244914641885265</v>
+        <v>-0.02370845171262278</v>
       </c>
       <c r="D94">
-        <v>0.06145305109464159</v>
+        <v>-0.0462283365076482</v>
       </c>
       <c r="E94">
-        <v>0.02074012568244066</v>
+        <v>-0.0614395551222249</v>
       </c>
       <c r="F94">
-        <v>0.03435023686512909</v>
+        <v>0.03043377059368381</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1122693348481499</v>
+        <v>-0.1252505153352475</v>
       </c>
       <c r="C95">
-        <v>-0.02193509610811431</v>
+        <v>-0.005165039247700437</v>
       </c>
       <c r="D95">
-        <v>0.05205551478139767</v>
+        <v>-0.09053164503158007</v>
       </c>
       <c r="E95">
-        <v>0.04362172248105049</v>
+        <v>-0.04411845736816721</v>
       </c>
       <c r="F95">
-        <v>0.04760699247329182</v>
+        <v>-0.01505836388464828</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01237243003365813</v>
+        <v>-0.09878229402335502</v>
       </c>
       <c r="C96">
-        <v>-0.001788709122573296</v>
+        <v>0.9888794511107789</v>
       </c>
       <c r="D96">
-        <v>0.001979878889112002</v>
+        <v>0.03056748920401973</v>
       </c>
       <c r="E96">
-        <v>0.007633844005671294</v>
+        <v>-0.05793735589983281</v>
       </c>
       <c r="F96">
-        <v>-0.004822413159839801</v>
+        <v>0.04726181982000438</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1742990033778935</v>
+        <v>-0.188099764249697</v>
       </c>
       <c r="C97">
-        <v>-0.08131073023441494</v>
+        <v>0.01089064660548519</v>
       </c>
       <c r="D97">
-        <v>0.1675990416160842</v>
+        <v>0.006970563988155729</v>
       </c>
       <c r="E97">
-        <v>0.0366560665982018</v>
+        <v>-0.01786620162352334</v>
       </c>
       <c r="F97">
-        <v>-0.8822552614418058</v>
+        <v>-0.1716255585618354</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2449116089924311</v>
+        <v>-0.2052659994389973</v>
       </c>
       <c r="C98">
-        <v>-0.06148342119555112</v>
+        <v>-0.007058152872295624</v>
       </c>
       <c r="D98">
-        <v>0.001982564365211049</v>
+        <v>-0.01072018511844974</v>
       </c>
       <c r="E98">
-        <v>0.0765801796271276</v>
+        <v>0.09906210869955197</v>
       </c>
       <c r="F98">
-        <v>0.02357726228393483</v>
+        <v>-0.1098829344760521</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.0435645684926361</v>
+        <v>-0.05594932421380908</v>
       </c>
       <c r="C99">
-        <v>0.02561677353977427</v>
+        <v>0.003985871071555294</v>
       </c>
       <c r="D99">
-        <v>0.03413056240077168</v>
+        <v>-0.03600039306730207</v>
       </c>
       <c r="E99">
-        <v>0.02493026213724159</v>
+        <v>-0.02652853908398639</v>
       </c>
       <c r="F99">
-        <v>0.02267013295614016</v>
+        <v>0.003620503479211537</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.02373212104578569</v>
+        <v>-0.1226622010164829</v>
       </c>
       <c r="C100">
-        <v>0.01308876446703297</v>
+        <v>0.05039691844285919</v>
       </c>
       <c r="D100">
-        <v>0.1395881302521708</v>
+        <v>-0.3492430743755759</v>
       </c>
       <c r="E100">
-        <v>-0.04583899045312342</v>
+        <v>0.8942173807412934</v>
       </c>
       <c r="F100">
-        <v>-0.04678713230806954</v>
+        <v>-0.06752854809229696</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03289630463713154</v>
+        <v>-0.02711976629965885</v>
       </c>
       <c r="C101">
-        <v>-0.009036055865086136</v>
+        <v>-0.008687898495110379</v>
       </c>
       <c r="D101">
-        <v>0.02794863714194728</v>
+        <v>-0.03087413629576519</v>
       </c>
       <c r="E101">
-        <v>-0.02731397366527291</v>
+        <v>-0.01145364277370711</v>
       </c>
       <c r="F101">
-        <v>0.04106438817344747</v>
+        <v>-0.0134388517578488</v>
       </c>
     </row>
     <row r="102" spans="1:6">
